--- a/Ageipelago William Wallace.xlsx
+++ b/Ageipelago William Wallace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb6dd295c338e39f/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70093AD7-EC08-420A-A45B-C04C0E461DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{70093AD7-EC08-420A-A45B-C04C0E461DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7260FECD-7FD7-43A7-A0DD-3EEBF584A3F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D996FA3-8E71-4AAB-A721-F834CDA60D66}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D996FA3-8E71-4AAB-A721-F834CDA60D66}"/>
   </bookViews>
   <sheets>
     <sheet name="William Wallace" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Scenario</t>
   </si>
@@ -363,12 +363,226 @@
       <t xml:space="preserve"> Reinforcements (William Wallace, 14 Elite Woad Raiders, 5 Cavaliers, 2 Galleons, 4 Transport Ships)</t>
     </r>
   </si>
+  <si>
+    <t>Army Player 2</t>
+  </si>
+  <si>
+    <t>Army Player 3</t>
+  </si>
+  <si>
+    <t>Army Player 4</t>
+  </si>
+  <si>
+    <t>Army Player 5</t>
+  </si>
+  <si>
+    <t>Army Player 6</t>
+  </si>
+  <si>
+    <t>Army Player 7</t>
+  </si>
+  <si>
+    <t>Army Player 8</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Militia or the Knight are required to defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>English</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Destroying the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outpost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and reaching the allied Units is possible from the Beginning.</t>
+    </r>
+  </si>
+  <si>
+    <t>All Objectives are possible from the Beginning except building the Wonder.
+To build the Wonder, Feudal Age, Castle Age, Imperial age, Wonders, Markets, 1 more Feudal Age Building, 2 Dark Age Buildings and either 2 Castle Age Buildings or Castles need to be unlocked.</t>
+  </si>
+  <si>
+    <t>To train the Militia, Barracks and Militia need to be unlocked.
+To build the Wonder, Feudal Age, Castle Age, Imperial age, Wonders, Markets, 1 more Feudal Age Building, 2 Dark Age Buildings and either 2 Castle Age Buildings or Castles need to be unlocked.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>English</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and advance to the Feudal Age, 1 Dark Age Building except Barracks and Feudal Age need to be unlocked.
+To research Men-at-Arms, Men-at-Arms need to be unlocked as well.</t>
+    </r>
+  </si>
+  <si>
+    <t>6 Men-at-Arms
+7 Archers</t>
+  </si>
+  <si>
+    <t>To advance to the Feudal Age, 1 Dark Age Building except Barracks and Feudal Age need to be unlocked.
+To build the Tower, Towers need to be unlocked as well.
+To destroy the Tower, any Military Unit needs to be unlocked.</t>
+  </si>
+  <si>
+    <t>6 Men-at-Arms</t>
+  </si>
+  <si>
+    <t>9 Men-at-Arms
+12 Crossbowmen
+4 Knights</t>
+  </si>
+  <si>
+    <t>Everything is possible from the Beginning.</t>
+  </si>
+  <si>
+    <t>2 Galleons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+4 Spearmen
+2 Longbowmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+12 Longbowmen
+12 Pikemen
+4 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+6 Longbowmen
+6 Pikemen
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <t>Reaching Castle Age requires Castle Age to be unlocked.
+Building a Castle requires Castle Age and Castles to be unlocked.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +647,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -534,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -582,6 +811,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954734D-5818-437B-811A-EFCAAC4C48B6}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,10 +1154,18 @@
     <col min="7" max="7" width="31.7109375" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="9" width="35.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -947,8 +1190,32 @@
       <c r="I3" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
@@ -971,8 +1238,18 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
@@ -995,8 +1272,18 @@
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
@@ -1015,8 +1302,18 @@
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1033,8 +1330,18 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1051,8 +1358,20 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="1"/>
+      <c r="J8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
@@ -1071,8 +1390,22 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="1"/>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
@@ -1094,6 +1427,20 @@
       </c>
       <c r="I10" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
